--- a/res/test_performance.xlsx
+++ b/res/test_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myfiles/Documents/EPFL/M_I/MLE/scRNAseq/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ED5DB6-B1BC-5244-A65F-AAD12A71DC56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263D55C-1A3A-D048-B06C-84602D15E3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="540" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
+    <workbookView xWindow="8400" yWindow="460" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -522,13 +522,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.93403288148510999</v>
+        <v>0.92544838155341602</v>
       </c>
       <c r="D2">
-        <v>0.85110154469485899</v>
+        <v>0.85363383134970805</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,13 +536,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0.93284882138385306</v>
+        <v>0.93403288148510999</v>
       </c>
       <c r="D3">
-        <v>0.84704988604709996</v>
+        <v>0.85110154469485899</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.92544838155341602</v>
+        <v>0.93284882138385306</v>
       </c>
       <c r="D4">
-        <v>0.85363383134970805</v>
+        <v>0.84704988604709996</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -575,72 +575,72 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.86355241655085402</v>
+        <v>0.83765151912009195</v>
       </c>
       <c r="D6">
-        <v>0.69435300075968598</v>
+        <v>0.800202582932388</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.85684479696617599</v>
+        <v>0.82147372983810896</v>
       </c>
       <c r="D7">
-        <v>0.69967080273486904</v>
+        <v>0.75284882248670504</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.84779152633076404</v>
+        <v>0.80219776551347199</v>
       </c>
       <c r="D8">
-        <v>0.51683970625474795</v>
+        <v>0.749303621169916</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.84404071872525099</v>
+        <v>0.837973148978436</v>
       </c>
       <c r="D9">
-        <v>0.73841478855406395</v>
+        <v>0.73942770321600404</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.837973148978436</v>
+        <v>0.84404071872525099</v>
       </c>
       <c r="D10">
-        <v>0.73942770321600404</v>
+        <v>0.73841478855406395</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -648,41 +648,41 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.83765151912009195</v>
+        <v>0.80702760598506296</v>
       </c>
       <c r="D11">
-        <v>0.800202582932388</v>
+        <v>0.72625981261078698</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.82753783291579197</v>
+        <v>0.79813174780726703</v>
       </c>
       <c r="D12">
-        <v>0.68473031147125796</v>
+        <v>0.70194986072423304</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.82147372983810896</v>
+        <v>0.85684479696617599</v>
       </c>
       <c r="D13">
-        <v>0.75284882248670504</v>
+        <v>0.69967080273486904</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,13 +690,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.81094070506400695</v>
+        <v>0.86355241655085402</v>
       </c>
       <c r="D14">
-        <v>0.52595593821220499</v>
+        <v>0.69435300075968598</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,97 +704,97 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0.80702760598506296</v>
+        <v>0.82753783291579197</v>
       </c>
       <c r="D15">
-        <v>0.72625981261078698</v>
+        <v>0.68473031147125796</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.80219776551347199</v>
+        <v>0.76266322875804904</v>
       </c>
       <c r="D16">
-        <v>0.749303621169916</v>
+        <v>0.66523170422891797</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.79813174780726703</v>
+        <v>0.68683754520793305</v>
       </c>
       <c r="D17">
-        <v>0.70194986072423304</v>
+        <v>0.66396556090149395</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.76266322875804904</v>
+        <v>0.73055558123458597</v>
       </c>
       <c r="D18">
-        <v>0.66523170422891797</v>
+        <v>0.655862243605976</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.73055558123458597</v>
+        <v>0.70780909592350505</v>
       </c>
       <c r="D19">
-        <v>0.655862243605976</v>
+        <v>0.62243605976196503</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.70942045509405105</v>
+        <v>0.63399857430022</v>
       </c>
       <c r="D20">
-        <v>0.58470498860470999</v>
+        <v>0.59913902253735096</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.70780909592350505</v>
+        <v>0.58745276342319896</v>
       </c>
       <c r="D21">
-        <v>0.62243605976196503</v>
+        <v>0.59052924791086303</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0.68683754520793305</v>
+        <v>0.70942045509405105</v>
       </c>
       <c r="D22">
-        <v>0.66396556090149395</v>
+        <v>0.58470498860470999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -816,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0.63399857430022</v>
+        <v>0.59195532464971201</v>
       </c>
       <c r="D23">
-        <v>0.59913902253735096</v>
+        <v>0.57432261331982704</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -841,44 +841,44 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0.60893455647691896</v>
+        <v>0.81094070506400695</v>
       </c>
       <c r="D25">
-        <v>0.45100025322866499</v>
+        <v>0.52595593821220499</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>0.59195532464971201</v>
+        <v>0.84779152633076404</v>
       </c>
       <c r="D26">
-        <v>0.57432261331982704</v>
+        <v>0.51683970625474795</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.58745276342319896</v>
+        <v>0.50954489567636996</v>
       </c>
       <c r="D27">
-        <v>0.59052924791086303</v>
+        <v>0.493289440364649</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -886,24 +886,24 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.57320372613005699</v>
+        <v>0.51028560731420902</v>
       </c>
       <c r="D28">
-        <v>0.47353760445682402</v>
+        <v>0.48316029374525199</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>0.51028560731420902</v>
+        <v>0.50195982361587399</v>
       </c>
       <c r="D29">
         <v>0.48316029374525199</v>
@@ -911,44 +911,44 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0.50954489567636996</v>
+        <v>0.57320372613005699</v>
       </c>
       <c r="D30">
-        <v>0.493289440364649</v>
+        <v>0.47353760445682402</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.50195982361587399</v>
+        <v>0.204977340823393</v>
       </c>
       <c r="D31">
-        <v>0.48316029374525199</v>
+        <v>0.47252468979488399</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.39221303940087698</v>
+        <v>0.60893455647691896</v>
       </c>
       <c r="D32">
-        <v>0.40896429475816598</v>
+        <v>0.45100025322866499</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -956,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0.23668670658215099</v>
+        <v>0.39221303940087698</v>
       </c>
       <c r="D33">
-        <v>0.35274753102051098</v>
+        <v>0.40896429475816598</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -970,19 +970,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0.204977340823393</v>
+        <v>0.23668670658215099</v>
       </c>
       <c r="D34">
-        <v>0.47252468979488399</v>
+        <v>0.35274753102051098</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D34" xr:uid="{7073E535-542F-A845-A26D-2644FC7D2DBB}">
     <sortState ref="A2:D34">
-      <sortCondition descending="1" ref="C1:C34"/>
+      <sortCondition descending="1" ref="D1:D34"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/res/test_performance.xlsx
+++ b/res/test_performance.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myfiles/Documents/EPFL/M_I/MLE/scRNAseq/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263D55C-1A3A-D048-B06C-84602D15E3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CF58E-674B-2945-8246-A8CE5E8AA558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="460" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$34</definedName>
-    <definedName name="test_performance_summary" localSheetId="0">Tabelle1!$A$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$42</definedName>
+    <definedName name="test_performance_summary_1" localSheetId="0">Tabelle1!$A$2:$D$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5F8CBB16-98A8-F144-93A9-94A59D0A742A}" name="test_performance_summary" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{45C3E089-0C22-9E49-B515-08FCED981640}" name="test_performance_summary" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/myfiles/Documents/EPFL/M_I/MLE/scRNAseq/res/test_performance_summary.csv" thousands="'" comma="1">
       <textFields count="4">
         <textField/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>base_features</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>gs-ref_highpass</t>
+  </si>
+  <si>
+    <t>gs-ref_lowpass</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_performance_summary" connectionId="1" xr16:uid="{D20D2064-53FD-AC4B-A074-8EF3C125E705}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_performance_summary_1" connectionId="1" xr16:uid="{56AE31D9-7075-0E42-BC25-FAB7E1E65D2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84851A43-7172-9345-A30E-E6F84E2DD34C}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,16 +595,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.82147372983810896</v>
+        <v>0.83970712552012805</v>
       </c>
       <c r="D7">
-        <v>0.75284882248670504</v>
+        <v>0.77184097239807503</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,293 +612,293 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.80219776551347199</v>
+        <v>0.82147372983810896</v>
       </c>
       <c r="D8">
-        <v>0.749303621169916</v>
+        <v>0.75284882248670504</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.837973148978436</v>
+        <v>0.80219776551347199</v>
       </c>
       <c r="D9">
-        <v>0.73942770321600404</v>
+        <v>0.749303621169916</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.84404071872525099</v>
+        <v>0.837973148978436</v>
       </c>
       <c r="D10">
-        <v>0.73841478855406395</v>
+        <v>0.73942770321600404</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.80702760598506296</v>
+        <v>0.84404071872525099</v>
       </c>
       <c r="D11">
-        <v>0.72625981261078698</v>
+        <v>0.73841478855406395</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0.79813174780726703</v>
+        <v>0.82537386100659704</v>
       </c>
       <c r="D12">
-        <v>0.70194986072423304</v>
+        <v>0.72853887060015199</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.85684479696617599</v>
+        <v>0.80702760598506296</v>
       </c>
       <c r="D13">
-        <v>0.69967080273486904</v>
+        <v>0.72625981261078698</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.86355241655085402</v>
+        <v>0.79813174780726703</v>
       </c>
       <c r="D14">
-        <v>0.69435300075968598</v>
+        <v>0.70194986072423304</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.82753783291579197</v>
+        <v>0.85684479696617599</v>
       </c>
       <c r="D15">
-        <v>0.68473031147125796</v>
+        <v>0.69967080273486904</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.76266322875804904</v>
+        <v>0.86355241655085402</v>
       </c>
       <c r="D16">
-        <v>0.66523170422891797</v>
+        <v>0.69435300075968598</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0.68683754520793305</v>
+        <v>0.79717956935238499</v>
       </c>
       <c r="D17">
-        <v>0.66396556090149395</v>
+        <v>0.68979488478095696</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.73055558123458597</v>
+        <v>0.82753783291579197</v>
       </c>
       <c r="D18">
-        <v>0.655862243605976</v>
+        <v>0.68473031147125796</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.70780909592350505</v>
+        <v>0.75898252490609097</v>
       </c>
       <c r="D19">
-        <v>0.62243605976196503</v>
+        <v>0.68219802481640901</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0.63399857430022</v>
+        <v>0.76266322875804904</v>
       </c>
       <c r="D20">
-        <v>0.59913902253735096</v>
+        <v>0.66523170422891797</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.58745276342319896</v>
+        <v>0.79498580976768696</v>
       </c>
       <c r="D21">
-        <v>0.59052924791086303</v>
+        <v>0.664218789566979</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>0.70942045509405105</v>
+        <v>0.79175590129802298</v>
       </c>
       <c r="D22">
-        <v>0.58470498860470999</v>
+        <v>0.664218789566979</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.59195532464971201</v>
+        <v>0.68683754520793305</v>
       </c>
       <c r="D23">
-        <v>0.57432261331982704</v>
+        <v>0.66396556090149395</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.621264856603157</v>
+        <v>0.73055558123458597</v>
       </c>
       <c r="D24">
-        <v>0.53380602684223799</v>
+        <v>0.655862243605976</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0.81094070506400695</v>
+        <v>0.70780909592350505</v>
       </c>
       <c r="D25">
-        <v>0.52595593821220499</v>
+        <v>0.62243605976196503</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.84779152633076404</v>
+        <v>0.63399857430022</v>
       </c>
       <c r="D26">
-        <v>0.51683970625474795</v>
+        <v>0.59913902253735096</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0.50954489567636996</v>
+        <v>0.58745276342319896</v>
       </c>
       <c r="D27">
-        <v>0.493289440364649</v>
+        <v>0.59052924791086303</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0.51028560731420902</v>
+        <v>0.70942045509405105</v>
       </c>
       <c r="D28">
-        <v>0.48316029374525199</v>
+        <v>0.58470498860470999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -900,69 +906,69 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0.50195982361587399</v>
+        <v>0.59195532464971201</v>
       </c>
       <c r="D29">
-        <v>0.48316029374525199</v>
+        <v>0.57432261331982704</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0.57320372613005699</v>
+        <v>0.57963760724847102</v>
       </c>
       <c r="D30">
-        <v>0.47353760445682402</v>
+        <v>0.55203849075715306</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.204977340823393</v>
+        <v>0.621264856603157</v>
       </c>
       <c r="D31">
-        <v>0.47252468979488399</v>
+        <v>0.53380602684223799</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>0.60893455647691896</v>
+        <v>0.81094070506400695</v>
       </c>
       <c r="D32">
-        <v>0.45100025322866499</v>
+        <v>0.52595593821220499</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>0.39221303940087698</v>
+        <v>0.84779152633076404</v>
       </c>
       <c r="D33">
-        <v>0.40896429475816598</v>
+        <v>0.51683970625474795</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -970,19 +976,131 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.50954489567636996</v>
+      </c>
+      <c r="D34">
+        <v>0.493289440364649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.50195982361587399</v>
+      </c>
+      <c r="D35">
+        <v>0.48316029374525199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0.48316029374525199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.51028560731420902</v>
+      </c>
+      <c r="D37">
+        <v>0.48316029374525199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C38">
+        <v>0.57320372613005699</v>
+      </c>
+      <c r="D38">
+        <v>0.47353760445682402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0.204977340823393</v>
+      </c>
+      <c r="D39">
+        <v>0.47252468979488399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.60893455647691896</v>
+      </c>
+      <c r="D40">
+        <v>0.45100025322866499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.39221303940087698</v>
+      </c>
+      <c r="D41">
+        <v>0.40896429475816598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
         <v>0.23668670658215099</v>
       </c>
-      <c r="D34">
+      <c r="D42">
         <v>0.35274753102051098</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34" xr:uid="{7073E535-542F-A845-A26D-2644FC7D2DBB}">
-    <sortState ref="A2:D34">
-      <sortCondition descending="1" ref="D1:D34"/>
+  <autoFilter ref="A1:D42" xr:uid="{7073E535-542F-A845-A26D-2644FC7D2DBB}">
+    <sortState ref="A2:D42">
+      <sortCondition descending="1" ref="D1:D42"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/res/test_performance.xlsx
+++ b/res/test_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myfiles/Documents/EPFL/M_I/MLE/scRNAseq/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CF58E-674B-2945-8246-A8CE5E8AA558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74CB87-03E5-4740-8D6A-B768582586DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="24540" windowHeight="14480" xr2:uid="{08DCA9A7-2F9B-AF4C-B66E-5518F0145DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$42</definedName>
     <definedName name="test_performance_summary_1" localSheetId="0">Tabelle1!$A$2:$D$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{45C3E089-0C22-9E49-B515-08FCED981640}" name="test_performance_summary" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{F9C16439-4168-9E4E-B393-A0B7A14D683F}" name="test_performance_summary" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/myfiles/Documents/EPFL/M_I/MLE/scRNAseq/res/test_performance_summary.csv" thousands="'" comma="1">
       <textFields count="4">
         <textField/>
@@ -73,12 +73,6 @@
     <t>gbf_lowpass</t>
   </si>
   <si>
-    <t>gs_highpass</t>
-  </si>
-  <si>
-    <t>gs_lowpass</t>
-  </si>
-  <si>
     <t>nested</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>gs-ref_lowpass</t>
+  </si>
+  <si>
+    <t>filter_and_pca_high-pass</t>
+  </si>
+  <si>
+    <t>filter_and_pca_low-pass</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,14 +170,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -196,7 +207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_performance_summary_1" connectionId="1" xr16:uid="{56AE31D9-7075-0E42-BC25-FAB7E1E65D2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_performance_summary_1" connectionId="1" xr16:uid="{35F9C655-3510-334D-84C3-70AAAE42C6AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,608 +510,608 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.92544838155341602</v>
-      </c>
-      <c r="D2">
-        <v>0.85363383134970805</v>
+      <c r="C2" s="3">
+        <v>0.94001095981026195</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.84907571537098003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.93403288148510999</v>
+        <v>0.93789629163983201</v>
       </c>
       <c r="D3">
-        <v>0.85110154469485899</v>
+        <v>0.83742719675867305</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.93284882138385306</v>
+        <v>0.93403288148510999</v>
       </c>
       <c r="D4">
-        <v>0.84704988604709996</v>
+        <v>0.85110154469485899</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.93284882138385306</v>
+      </c>
+      <c r="D5">
+        <v>0.84704988604709996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0.91043077087422697</v>
-      </c>
-      <c r="D5">
-        <v>0.83844011142061203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.83765151912009195</v>
-      </c>
-      <c r="D6">
-        <v>0.800202582932388</v>
+      <c r="C6" s="4">
+        <v>0.92544838155341602</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.85363383134970805</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.83970712552012805</v>
+        <v>0.91232331542991296</v>
       </c>
       <c r="D7">
-        <v>0.77184097239807503</v>
+        <v>0.83869334008609697</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.82147372983810896</v>
+        <v>0.91043077087422697</v>
       </c>
       <c r="D8">
-        <v>0.75284882248670504</v>
+        <v>0.83844011142061203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.80219776551347199</v>
+        <v>0.89051604066325796</v>
       </c>
       <c r="D9">
-        <v>0.749303621169916</v>
+        <v>0.81337047353760406</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.837973148978436</v>
+        <v>0.86355806593758699</v>
       </c>
       <c r="D10">
-        <v>0.73942770321600404</v>
+        <v>0.64168143833881996</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.84404071872525099</v>
+        <v>0.84764438548539001</v>
       </c>
       <c r="D11">
-        <v>0.73841478855406395</v>
+        <v>0.72651304127627203</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.82537386100659704</v>
+        <v>0.84404071872525099</v>
       </c>
       <c r="D12">
-        <v>0.72853887060015199</v>
+        <v>0.73841478855406395</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.80702760598506296</v>
+        <v>0.83970712552012805</v>
       </c>
       <c r="D13">
-        <v>0.72625981261078698</v>
+        <v>0.77184097239807503</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.79813174780726703</v>
+        <v>0.837973148978436</v>
       </c>
       <c r="D14">
-        <v>0.70194986072423304</v>
+        <v>0.73942770321600404</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.85684479696617599</v>
+        <v>0.83765151912009195</v>
       </c>
       <c r="D15">
-        <v>0.69967080273486904</v>
+        <v>0.800202582932388</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.86355241655085402</v>
+        <v>0.83744082267396702</v>
       </c>
       <c r="D16">
-        <v>0.69435300075968598</v>
+        <v>0.72068878197011899</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.79717956935238499</v>
+        <v>0.82753783291579197</v>
       </c>
       <c r="D17">
-        <v>0.68979488478095696</v>
+        <v>0.68473031147125796</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.82753783291579197</v>
+        <v>0.82537386100659704</v>
       </c>
       <c r="D18">
-        <v>0.68473031147125796</v>
+        <v>0.72853887060015199</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>0.75898252490609097</v>
+        <v>0.82213971549688403</v>
       </c>
       <c r="D19">
-        <v>0.68219802481640901</v>
+        <v>0.68473031147125796</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0.76266322875804904</v>
+        <v>0.82147372983810896</v>
       </c>
       <c r="D20">
-        <v>0.66523170422891797</v>
+        <v>0.75284882248670504</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0.79498580976768696</v>
+        <v>0.80702760598506296</v>
       </c>
       <c r="D21">
-        <v>0.664218789566979</v>
+        <v>0.72625981261078698</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0.79175590129802298</v>
+        <v>0.80219776551347199</v>
       </c>
       <c r="D22">
-        <v>0.664218789566979</v>
+        <v>0.749303621169916</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0.68683754520793305</v>
+        <v>0.79813174780726703</v>
       </c>
       <c r="D23">
-        <v>0.66396556090149395</v>
+        <v>0.70194986072423304</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0.73055558123458597</v>
+        <v>0.79717956935238499</v>
       </c>
       <c r="D24">
-        <v>0.655862243605976</v>
+        <v>0.68979488478095696</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.70780909592350505</v>
+        <v>0.79498580976768696</v>
       </c>
       <c r="D25">
-        <v>0.62243605976196503</v>
+        <v>0.664218789566979</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0.63399857430022</v>
+        <v>0.79210847438824805</v>
       </c>
       <c r="D26">
-        <v>0.59913902253735096</v>
+        <v>0.71891618131172397</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.58745276342319896</v>
+        <v>0.79175590129802298</v>
       </c>
       <c r="D27">
-        <v>0.59052924791086303</v>
+        <v>0.664218789566979</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0.70942045509405105</v>
+        <v>0.76266322875804904</v>
       </c>
       <c r="D28">
-        <v>0.58470498860470999</v>
+        <v>0.66523170422891797</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>0.59195532464971201</v>
+        <v>0.75898252490609097</v>
       </c>
       <c r="D29">
-        <v>0.57432261331982704</v>
+        <v>0.68219802481640901</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0.57963760724847102</v>
+        <v>0.75642925889290502</v>
       </c>
       <c r="D30">
-        <v>0.55203849075715306</v>
+        <v>0.65383641428209605</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.621264856603157</v>
+        <v>0.73055558123458597</v>
       </c>
       <c r="D31">
-        <v>0.53380602684223799</v>
+        <v>0.655862243605976</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>0.81094070506400695</v>
+        <v>0.71675464302552305</v>
       </c>
       <c r="D32">
-        <v>0.52595593821220499</v>
+        <v>0.50873638895923001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0.84779152633076404</v>
+        <v>0.70942045509405105</v>
       </c>
       <c r="D33">
-        <v>0.51683970625474795</v>
+        <v>0.58470498860470999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.70780909592350505</v>
+      </c>
+      <c r="D34">
+        <v>0.62243605976196503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>0.50954489567636996</v>
-      </c>
-      <c r="D34">
-        <v>0.493289440364649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>0.50195982361587399</v>
-      </c>
-      <c r="D35">
-        <v>0.48316029374525199</v>
+      <c r="C35" s="4">
+        <v>0.68683754520793305</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.66396556090149395</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.64401121351908497</v>
       </c>
       <c r="D36">
-        <v>0.48316029374525199</v>
+        <v>0.54216257280324098</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.51028560731420902</v>
+        <v>0.63399857430022</v>
       </c>
       <c r="D37">
-        <v>0.48316029374525199</v>
+        <v>0.59913902253735096</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0.57320372613005699</v>
+        <v>0.59195532464971201</v>
       </c>
       <c r="D38">
-        <v>0.47353760445682402</v>
+        <v>0.57432261331982704</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0.204977340823393</v>
+        <v>0.58745276342319896</v>
       </c>
       <c r="D39">
-        <v>0.47252468979488399</v>
+        <v>0.59052924791086303</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.60893455647691896</v>
+        <v>0.57963760724847102</v>
       </c>
       <c r="D40">
-        <v>0.45100025322866499</v>
+        <v>0.55203849075715306</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>0.39221303940087698</v>
-      </c>
-      <c r="D41">
-        <v>0.40896429475816598</v>
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.50195982361587399</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.48316029374525199</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>0.23668670658215099</v>
-      </c>
-      <c r="D42">
-        <v>0.35274753102051098</v>
+      <c r="A42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.48316029374525199</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D42" xr:uid="{7073E535-542F-A845-A26D-2644FC7D2DBB}">
     <sortState ref="A2:D42">
-      <sortCondition descending="1" ref="D1:D42"/>
+      <sortCondition descending="1" ref="C1:C42"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
